--- a/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
+++ b/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>InputUsername</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>LoginTest</t>
+  </si>
+  <si>
+    <t>N0rthg4t311</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -374,11 +377,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -387,20 +388,31 @@
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -419,20 +431,9 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
+++ b/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="deals" sheetId="2" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTestSuccessFull" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTestUnSuccessFull" sheetId="4" r:id="rId2"/>
+    <sheet name="VerifySectionNames" sheetId="5" r:id="rId3"/>
+    <sheet name="VerifyButtonNames" sheetId="2" r:id="rId4"/>
+    <sheet name="tasks" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>InputUsername</t>
   </si>
@@ -44,10 +46,127 @@
     <t>Hello, Abhilashaa</t>
   </si>
   <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
     <t>N0rthg4t311</t>
+  </si>
+  <si>
+    <t>LoginTestSuccessFull</t>
+  </si>
+  <si>
+    <t>LoginTestUnSuccessFull</t>
+  </si>
+  <si>
+    <t>ExpectedErrorMessage</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address/password. Please register before you login for the first time.</t>
+  </si>
+  <si>
+    <t>VerifySectionNames</t>
+  </si>
+  <si>
+    <t>SectionName</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Create Worksheets</t>
+  </si>
+  <si>
+    <t>ButtonNames</t>
+  </si>
+  <si>
+    <t>VerifyButtonNames</t>
+  </si>
+  <si>
+    <t>Add OOA Address</t>
+  </si>
+  <si>
+    <t>Configure SND</t>
+  </si>
+  <si>
+    <t>Manage Contacts</t>
+  </si>
+  <si>
+    <t>Manage Alerts</t>
+  </si>
+  <si>
+    <t>Abandoned Vehicles</t>
+  </si>
+  <si>
+    <t>Accidents</t>
+  </si>
+  <si>
+    <t>Empty Homes</t>
+  </si>
+  <si>
+    <t>Enquiries</t>
+  </si>
+  <si>
+    <t>Environmental Permits</t>
+  </si>
+  <si>
+    <t>Fixed Penalty Notice</t>
+  </si>
+  <si>
+    <t>Food Registration</t>
+  </si>
+  <si>
+    <t>HMO Details</t>
+  </si>
+  <si>
+    <t>Infectious Disease</t>
+  </si>
+  <si>
+    <t>Inspections Animal Feed</t>
+  </si>
+  <si>
+    <t>Inspections Animal Health</t>
+  </si>
+  <si>
+    <t>Inspections Environmental Permit</t>
+  </si>
+  <si>
+    <t>Inspections Food Hygiene</t>
+  </si>
+  <si>
+    <t>Inspections Food Scotland</t>
+  </si>
+  <si>
+    <t>Inspections Food Standards</t>
+  </si>
+  <si>
+    <t>Inspections Health And Safety</t>
+  </si>
+  <si>
+    <t>Inspections HMO</t>
+  </si>
+  <si>
+    <t>Inspections Licensing</t>
+  </si>
+  <si>
+    <t>Inspections Petroleum</t>
+  </si>
+  <si>
+    <t>Inspections Primary Producers</t>
+  </si>
+  <si>
+    <t>Inspections Trading Standards</t>
+  </si>
+  <si>
+    <t>Licences</t>
+  </si>
+  <si>
+    <t>Notices</t>
+  </si>
+  <si>
+    <t>Prosecutions</t>
+  </si>
+  <si>
+    <t>PSH Inspections</t>
+  </si>
+  <si>
+    <t>Inspections Non Routine</t>
   </si>
 </sst>
 </file>
@@ -379,9 +498,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
@@ -390,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -401,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -409,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -420,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -431,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -442,19 +632,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
+++ b/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="642" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestSuccessFull" sheetId="1" r:id="rId1"/>
     <sheet name="LoginTestUnSuccessFull" sheetId="4" r:id="rId2"/>
     <sheet name="VerifySectionNames" sheetId="5" r:id="rId3"/>
     <sheet name="VerifyButtonNames" sheetId="2" r:id="rId4"/>
-    <sheet name="tasks" sheetId="3" r:id="rId5"/>
+    <sheet name="SelectAbandonedVehicles" sheetId="6" r:id="rId5"/>
+    <sheet name="tasks" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>InputUsername</t>
   </si>
@@ -167,6 +168,15 @@
   </si>
   <si>
     <t>Inspections Non Routine</t>
+  </si>
+  <si>
+    <t>ABVC</t>
+  </si>
+  <si>
+    <t>AbandonedVehiclesType</t>
+  </si>
+  <si>
+    <t>selectAbandonedVehiclesType</t>
   </si>
 </sst>
 </file>
@@ -488,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,7 +578,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -675,9 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -850,6 +858,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>"ABVC,ABVD"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
+++ b/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="642" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15600" windowHeight="8535" tabRatio="783" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestSuccessFull" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,9 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -685,7 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>

--- a/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
+++ b/src/main/java/com/assure/qa/testdata/AssureTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15600" windowHeight="8535" tabRatio="783" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15600" windowHeight="8535" tabRatio="783" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestSuccessFull" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="SelectAbandonedVehicles" sheetId="6" r:id="rId5"/>
     <sheet name="tasks" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -498,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -861,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
